--- a/X.509.xlsx
+++ b/X.509.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\courseware_hw3_X.509\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\courseware_hw3_X.509\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10968"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,157 +25,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>X.509证书结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Certificate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Version</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Serial Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certificate Signature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颁发者唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X.509证书基本部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version（版本号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识证书的版本（版本1、版本2或版本3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serial Number（序列号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识证书的唯一整数，由证书颁发者分配的本证书的唯一标识符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识证书的版本（版本1、版本2或是版本3）</t>
+  </si>
+  <si>
+    <t>标识证书的唯一整数，由证书颁发者分配的本证书的唯一标识符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书颁发者的可识别名（DN）</t>
   </si>
   <si>
     <t>Issuer(CA's name)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颁发者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public Key Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公钥算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issuer Unique Identifier (Optional)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extensions(Optional)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Validity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not Before</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Not After</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效终止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject Pubilc Key Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者公钥信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject Public Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject Unique Identifier(Optional)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Certificate Signature Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书签名算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书有效期的时间段。本字段由”Not Before”和”Not After”两项组成，它们分别由UTC时间或一般的时间表示（在RFC2459中有详细的时间表示规则）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体的公钥（以及算法标识符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Subject</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subject Pubilc Key Info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Public Key Algorithm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subject Public Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Issuer Unique Identifier (Optional)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subject Unique Identifier(Optional)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extensions(Optional)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Certificate Signature Algorithm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Certificate Signature</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颁发者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效起始日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效终止日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者公钥信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公钥算法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公钥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颁发者唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拓展</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书签名算法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书签名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识符—证书颁发者的唯一标识符，仅在版本2和版本3中有要求，属于可选项。</t>
+  </si>
+  <si>
+    <t>证书拥有者的唯一标识符，仅在版本2和版本3中有要求，属于可选项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于签证书的算法标识，由对象标识符加上相关的参数组成，用于说明本证书所用的数字签名算法。例如，SHA-1和RSA的对象标识符就用来说明该数字签名是利用RSA对SHA-1杂凑加密。</t>
+  </si>
+  <si>
+    <t>可选的标准和专用的扩展（仅在版本2和版本3中使用）</t>
+  </si>
+  <si>
+    <t>证书拥有者的可识别名，这个字段必须是非空的，除非在证书扩展中有别名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -189,7 +228,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <family val="2"/>
@@ -197,16 +236,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -214,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,18 +253,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -244,84 +292,151 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
+      <top style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
+      <right/>
+      <top style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
       </right>
-      <top style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
+      <top style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
       </bottom>
       <diagonal/>
     </border>
@@ -330,38 +445,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="1" builtinId="17"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,158 +825,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.06640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.3984375" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="32.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="44.21875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="41.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="41.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
